--- a/Code/Results/Cases/Case_0_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_142/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1034863704385884</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3658991310358033</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4281958523012435</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5.205430898608427</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002354317838868967</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.102759795275716</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.09155301181868936</v>
+      </c>
+      <c r="D3">
+        <v>0.3243481859841495</v>
+      </c>
+      <c r="E3">
+        <v>0.3710639949851355</v>
+      </c>
+      <c r="F3">
+        <v>4.680798169126888</v>
+      </c>
+      <c r="G3">
+        <v>0.002372329546551367</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3.6866497954056</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.0843410140927574</v>
+      </c>
+      <c r="D4">
+        <v>0.2992455695483898</v>
+      </c>
+      <c r="E4">
+        <v>0.3364244693129166</v>
+      </c>
+      <c r="F4">
+        <v>4.364518831432633</v>
+      </c>
+      <c r="G4">
+        <v>0.002383856005465012</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.435768484871119</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.08142859415609394</v>
+      </c>
+      <c r="D5">
+        <v>0.2891106619135542</v>
+      </c>
+      <c r="E5">
+        <v>0.3224065911000196</v>
+      </c>
+      <c r="F5">
+        <v>4.236999765924622</v>
+      </c>
+      <c r="G5">
+        <v>0.002388671968041031</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.334610156171351</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.08094652249052103</v>
+      </c>
+      <c r="D6">
+        <v>0.2874332430106392</v>
+      </c>
+      <c r="E6">
+        <v>0.3200844967831955</v>
+      </c>
+      <c r="F6">
+        <v>4.215904982482186</v>
+      </c>
+      <c r="G6">
+        <v>0.00238947887146965</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3.317875668782108</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.08430163189181883</v>
+      </c>
+      <c r="D7">
+        <v>0.2991085144385579</v>
+      </c>
+      <c r="E7">
+        <v>0.3362350386322532</v>
+      </c>
+      <c r="F7">
+        <v>4.362793661205274</v>
+      </c>
+      <c r="G7">
+        <v>0.002383920472259574</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.434399969632011</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.09934635633695166</v>
+      </c>
+      <c r="D8">
+        <v>0.3514820914756456</v>
+      </c>
+      <c r="E8">
+        <v>0.4083977867818618</v>
+      </c>
+      <c r="F8">
+        <v>5.023260325220406</v>
+      </c>
+      <c r="G8">
+        <v>0.002360432140267714</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.958277320575519</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1298787264763632</v>
+      </c>
+      <c r="D9">
+        <v>0.4578431638119014</v>
+      </c>
+      <c r="E9">
+        <v>0.5539985699650458</v>
+      </c>
+      <c r="F9">
+        <v>6.369770568707281</v>
+      </c>
+      <c r="G9">
+        <v>0.002318014718680557</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5.02611941635945</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.153110760770744</v>
+      </c>
+      <c r="D10">
+        <v>0.5388157052723841</v>
+      </c>
+      <c r="E10">
+        <v>0.6643557795503909</v>
+      </c>
+      <c r="F10">
+        <v>7.397672893380218</v>
+      </c>
+      <c r="G10">
+        <v>0.002288978743679504</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5.841185604972736</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.1638940434547465</v>
+      </c>
+      <c r="D11">
+        <v>0.576408454145394</v>
+      </c>
+      <c r="E11">
+        <v>0.7155062906529253</v>
+      </c>
+      <c r="F11">
+        <v>7.875410429778924</v>
+      </c>
+      <c r="G11">
+        <v>0.002276210254827271</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6.219984273189482</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.1680118871598211</v>
+      </c>
+      <c r="D12">
+        <v>0.5907653499264711</v>
+      </c>
+      <c r="E12">
+        <v>0.7350307456245275</v>
+      </c>
+      <c r="F12">
+        <v>8.057927640822186</v>
+      </c>
+      <c r="G12">
+        <v>0.002271436621253246</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6.364699972045287</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.167123444727963</v>
+      </c>
+      <c r="D13">
+        <v>0.5876677334713349</v>
+      </c>
+      <c r="E13">
+        <v>0.7308186091905924</v>
+      </c>
+      <c r="F13">
+        <v>8.018545259869143</v>
+      </c>
+      <c r="G13">
+        <v>0.002272462001785788</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.333474258300612</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.1642321093796681</v>
+      </c>
+      <c r="D14">
+        <v>0.5775870991193415</v>
+      </c>
+      <c r="E14">
+        <v>0.717109365145177</v>
+      </c>
+      <c r="F14">
+        <v>7.890393099629932</v>
+      </c>
+      <c r="G14">
+        <v>0.00227581630266203</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.23186389804755</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.1624656784737795</v>
+      </c>
+      <c r="D15">
+        <v>0.5714286018856569</v>
+      </c>
+      <c r="E15">
+        <v>0.708732795739067</v>
+      </c>
+      <c r="F15">
+        <v>7.812110290811518</v>
+      </c>
+      <c r="G15">
+        <v>0.002277878865762889</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.169794064144241</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1524106701096173</v>
+      </c>
+      <c r="D16">
+        <v>0.5363752191301501</v>
+      </c>
+      <c r="E16">
+        <v>0.6610336097458713</v>
+      </c>
+      <c r="F16">
+        <v>7.366668280694796</v>
+      </c>
+      <c r="G16">
+        <v>0.002289821901159777</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5.816601656299383</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.1462997409237232</v>
+      </c>
+      <c r="D17">
+        <v>0.515073758572612</v>
+      </c>
+      <c r="E17">
+        <v>0.6320273822288272</v>
+      </c>
+      <c r="F17">
+        <v>7.096104893960273</v>
+      </c>
+      <c r="G17">
+        <v>0.002297260059498493</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.602066458419813</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1428048990167383</v>
+      </c>
+      <c r="D18">
+        <v>0.5028922756415284</v>
+      </c>
+      <c r="E18">
+        <v>0.6154318622555337</v>
+      </c>
+      <c r="F18">
+        <v>6.941428809509659</v>
+      </c>
+      <c r="G18">
+        <v>0.002301579828722799</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.479418853513607</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.1416249369407296</v>
+      </c>
+      <c r="D19">
+        <v>0.4987795895534077</v>
+      </c>
+      <c r="E19">
+        <v>0.6098274921029656</v>
+      </c>
+      <c r="F19">
+        <v>6.889215998784948</v>
+      </c>
+      <c r="G19">
+        <v>0.002303049615200727</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5.438017330193532</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.1469481646168731</v>
+      </c>
+      <c r="D20">
+        <v>0.5173339465322897</v>
+      </c>
+      <c r="E20">
+        <v>0.6351058973379509</v>
+      </c>
+      <c r="F20">
+        <v>7.124807985797247</v>
+      </c>
+      <c r="G20">
+        <v>0.002296463968093554</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.62482590655685</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.1650804002981943</v>
+      </c>
+      <c r="D21">
+        <v>0.5805446301712323</v>
+      </c>
+      <c r="E21">
+        <v>0.7211317457676216</v>
+      </c>
+      <c r="F21">
+        <v>7.927989596947725</v>
+      </c>
+      <c r="G21">
+        <v>0.002274829408398281</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6.261673787066513</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.1771334774471143</v>
+      </c>
+      <c r="D22">
+        <v>0.6225700557585583</v>
+      </c>
+      <c r="E22">
+        <v>0.7782668076490751</v>
+      </c>
+      <c r="F22">
+        <v>8.462367157150709</v>
+      </c>
+      <c r="G22">
+        <v>0.002261047643718236</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>6.68537120521097</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.1706807498212584</v>
+      </c>
+      <c r="D23">
+        <v>0.6000707013142801</v>
+      </c>
+      <c r="E23">
+        <v>0.7476828385812411</v>
+      </c>
+      <c r="F23">
+        <v>8.176242621745757</v>
+      </c>
+      <c r="G23">
+        <v>0.002268371114494627</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6.458509868908436</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.146654955180253</v>
+      </c>
+      <c r="D24">
+        <v>0.5163119139867831</v>
+      </c>
+      <c r="E24">
+        <v>0.6337138511544538</v>
+      </c>
+      <c r="F24">
+        <v>7.111828605630592</v>
+      </c>
+      <c r="G24">
+        <v>0.002296823745563614</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.614534215005676</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1214915166500532</v>
+      </c>
+      <c r="D25">
+        <v>0.4286184247072242</v>
+      </c>
+      <c r="E25">
+        <v>0.5140831396649901</v>
+      </c>
+      <c r="F25">
+        <v>5.999277660520249</v>
+      </c>
+      <c r="G25">
+        <v>0.002329109085325987</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.732321633823091</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
